--- a/Resources/OptimalSequentialCutoffsForChangingFilterSizesAndArraySizes.xlsx
+++ b/Resources/OptimalSequentialCutoffsForChangingFilterSizesAndArraySizes.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FilterSize</t>
+  </si>
+  <si>
+    <t>ArraySize</t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -388,78 +391,48 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100000</v>
-      </c>
-      <c r="B2">
-        <v>2500</v>
-      </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-      <c r="D2">
-        <v>2000</v>
-      </c>
-      <c r="E2">
-        <v>3500</v>
-      </c>
-      <c r="F2">
-        <v>1500</v>
-      </c>
-      <c r="G2">
-        <v>2500</v>
-      </c>
-      <c r="H2">
-        <v>1500</v>
-      </c>
-      <c r="I2">
-        <v>2000</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2">
-        <v>1500</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="C3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="F3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G3">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="H3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3">
         <v>1000</v>
       </c>
-      <c r="J3">
-        <v>4000</v>
-      </c>
       <c r="K3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B4">
         <v>5000</v>
@@ -468,103 +441,103 @@
         <v>4000</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E4">
         <v>2500</v>
       </c>
       <c r="F4">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G4">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="H4">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="I4">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K4">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="B5">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="C5">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D5">
         <v>4000</v>
       </c>
       <c r="E5">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="G5">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H5">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="I5">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J5">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="B6">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>3500</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
+      </c>
+      <c r="H6">
+        <v>2500</v>
+      </c>
+      <c r="I6">
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <v>5000</v>
+      </c>
+      <c r="K6">
         <v>1500</v>
-      </c>
-      <c r="E6">
-        <v>4000</v>
-      </c>
-      <c r="F6">
-        <v>5000</v>
-      </c>
-      <c r="G6">
-        <v>2000</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>2000</v>
-      </c>
-      <c r="J6">
-        <v>1500</v>
-      </c>
-      <c r="K6">
-        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="B7">
         <v>5000</v>
@@ -573,130 +546,130 @@
         <v>4000</v>
       </c>
       <c r="D7">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E7">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="F7">
         <v>5000</v>
       </c>
       <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
         <v>1500</v>
       </c>
-      <c r="H7">
-        <v>3500</v>
-      </c>
-      <c r="I7">
-        <v>2500</v>
-      </c>
-      <c r="J7">
-        <v>2500</v>
-      </c>
       <c r="K7">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="B8">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C8">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="F8">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="H8">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="I8">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K8">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>800000</v>
+        <v>700000</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C9">
         <v>5000</v>
       </c>
       <c r="D9">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E9">
         <v>3000</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H9">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="B10">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="C10">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D10">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="E10">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F10">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G10">
         <v>5000</v>
       </c>
       <c r="H10">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I10">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K10">
         <v>2000</v>
@@ -704,36 +677,71 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>900000</v>
+      </c>
+      <c r="B11">
+        <v>3500</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11">
+        <v>4500</v>
+      </c>
+      <c r="E11">
+        <v>2500</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+      <c r="G11">
+        <v>5000</v>
+      </c>
+      <c r="H11">
+        <v>2500</v>
+      </c>
+      <c r="I11">
+        <v>4000</v>
+      </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1000000</v>
       </c>
-      <c r="B11">
-        <v>3500</v>
-      </c>
-      <c r="C11">
-        <v>4000</v>
-      </c>
-      <c r="D11">
-        <v>4000</v>
-      </c>
-      <c r="E11">
+      <c r="B12">
+        <v>3500</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
         <v>4500</v>
       </c>
-      <c r="F11">
-        <v>2500</v>
-      </c>
-      <c r="G11">
-        <v>2000</v>
-      </c>
-      <c r="H11">
-        <v>2500</v>
-      </c>
-      <c r="I11">
-        <v>5000</v>
-      </c>
-      <c r="J11">
-        <v>2500</v>
-      </c>
-      <c r="K11">
+      <c r="F12">
+        <v>2500</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>2500</v>
+      </c>
+      <c r="I12">
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>2500</v>
+      </c>
+      <c r="K12">
         <v>1000</v>
       </c>
     </row>
